--- a/email.xlsx
+++ b/email.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Emails</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
 </sst>
 </file>
@@ -392,7 +401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -400,51 +409,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
     </row>
   </sheetData>

--- a/email.xlsx
+++ b/email.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Emails</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>En</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,7 +415,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -441,7 +444,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -452,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
